--- a/testdata/wordcontrol_import.xlsx
+++ b/testdata/wordcontrol_import.xlsx
@@ -22,12 +22,6 @@
     <t>синтактическая_категория</t>
   </si>
   <si>
-    <t xml:space="preserve">словоформаА1 [грамматическая_категория] [диалект] [информант]  "комментарий"  | словоформаА2 [грамматическая_категория] [диалект] [информант] "комментарий" </t>
-  </si>
-  <si>
-    <t>синтактическая_категория [параметры_лексемы]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[тема] [диалект] "комментарий_группы" @  [параметры_лексемы] переводА1 [диалект_перевода] "комментарий_перевода" | [параметры_лексемы] переводА2 [диалект_перевода] "комментарий_перевода" </t>
   </si>
   <si>
@@ -57,6 +51,12 @@
   </si>
   <si>
     <t>Переводимый язык (основной диалект) [другая система письма]</t>
+  </si>
+  <si>
+    <t>синтаксическая_категория [параметры_лексемы]</t>
+  </si>
+  <si>
+    <t>словоформаА1 [грамматическая_категория] [диалект] [информант] "комментарий"  | словоформаА2 [грамматическая_категория] [диалект] [информант] "комментарий"</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,30 +442,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/wordcontrol_import.xlsx
+++ b/testdata/wordcontrol_import.xlsx
@@ -34,10 +34,6 @@
     <t>переводБ1 | переводБ2 *2</t>
   </si>
   <si>
-    <t>*1: Расширенный комментарий
-*2: Расширенный комментарий</t>
-  </si>
-  <si>
     <t>Переводимый язык (основной диалект) [система письма]</t>
   </si>
   <si>
@@ -57,6 +53,10 @@
   </si>
   <si>
     <t>словоформаА1 [грамматическая_категория] [диалект] [информант] "комментарий"  | словоформаА2 [грамматическая_категория] [диалект] [информант] "комментарий"</t>
+  </si>
+  <si>
+    <t>*1 Расширенный комментарий
+*2 Расширенный комментарий</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -456,13 +456,13 @@
     </row>
     <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
